--- a/other/Tripping Analysis/SolA Curtailment Summary_Final_trippingalldays_messy.xlsx
+++ b/other/Tripping Analysis/SolA Curtailment Summary_Final_trippingalldays_messy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samha\Documents\CANVAS\CANVAS-Open-Source\other\Tripping Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B302FB-8DEE-4B21-8FE6-E731F7907154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A21DC-7E87-49F7-A657-5E3D1752F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z502"/>
+  <dimension ref="A1:Z503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="Z503" sqref="Z503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40081,6 +40081,12 @@
         <v>34.235661376501241</v>
       </c>
     </row>
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z503">
+        <f>AVERAGE(Z2:Z500)</f>
+        <v>87.528232332435039</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="Z1:Z1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
